--- a/tools/da-apps/dist/static/files/reference.xlsx
+++ b/tools/da-apps/dist/static/files/reference.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AAA624-7140-6B48-9BDE-FA2F242CD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="900" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Report" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Invalid Pages" state="visible" r:id="rId5"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid Pages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -59,158 +63,97 @@
     <t>URL_PATH</t>
   </si>
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>METAKEYINDEX</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>KEYWORDS</t>
-  </si>
-  <si>
-    <t>SERP-CONTENT-TYPE</t>
-  </si>
-  <si>
-    <t>PUBLISHDATE</t>
-  </si>
-  <si>
-    <t>PRIMARYPRODUCTNAME</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/index.md</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page</t>
+    <t>META_JSON</t>
+  </si>
+  <si>
+    <t>https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage1.md</t>
+  </si>
+  <si>
+    <t>https://main--da-bacom--adobecom.aem.page</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>index.md</t>
-  </si>
-  <si>
-    <t>mdast.children[51].children[0]</t>
-  </si>
-  <si>
-    <t>[51,0]</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>{"type":"gtBody","children":[{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"strong","children":[{"type":"text","value":"Metadata"}]}]}],"colSpan":2}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Title"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe for Business | Enterprise Digital Marketing\nSolutions"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Description"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Drive growth and engage customers across channels with\npersonalized experiences from Adobe's powerful digital\nmarketing, analytics, commerce, AI, and automation tools."}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"keywords"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"adobe business, adobe for business, adobe marketing,\nadobe digital experience"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"serp-content-type"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"product"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"publishDate"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"2023-06-27"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"primaryProductName"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"All DX"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"image"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"image","alt":"Gradient color Adobe brand logo","label":"image10","url":"https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Footer-source"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"link","title":null,"url":"https://main--bacom--adobecom.hlx.page/footer","children":[{"type":"text","value":"https://main--bacom--adobecom.hlx.page/footer"}]}]}]}]}]}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"blockType":"metadata","blockName":"metadata","keys":[]}</t>
-  </si>
-  <si>
-    <t>globalReturn</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--bacom--adobecom.hlx.page/index.md&amp;path=mdast.children[51].children[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe for Business | Enterprise Digital Marketing
-Solutions</t>
-  </si>
-  <si>
-    <t>0,8,1,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drive growth and engage customers across channels with
-personalized experiences from Adobe's powerful digital
-marketing, analytics, commerce, AI, and automation tools.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adobe business, adobe for business, adobe marketing,
-adobe digital experience</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>All DX</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/ca/index.md</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>mdast.children[53].children[0]</t>
-  </si>
-  <si>
-    <t>[53,0]</t>
-  </si>
-  <si>
-    <t>{"type":"gtBody","children":[{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"strong","children":[{"type":"text","value":"Metadata"}]}]}],"colSpan":2}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Title"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe for Business | Enterprise Digital Marketing\nSolutions"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Description"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Drive growth and engage customers across channels with\npersonalized experiences from Adobe's powerful digital\nmarketing, analytics, commerce, AI, and automation tools."}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"keywords"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"adobe business, adobe for business, adobe marketing,\nadobe digital experience"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"serp-content-type"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"product"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"publishDate"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"2023-06-27"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"primaryProductName"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"All DX"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"image"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"image","alt":"Gradient color Adobe brand logo","label":"image16","url":"https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Footer-source"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"link","title":null,"url":"https://main--bacom--adobecom.hlx.page/footer","children":[{"type":"text","value":"https://main--bacom--adobecom.hlx.page/footer"}]}]}]}]}]}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--bacom--adobecom.hlx.page/ca/index.md&amp;path=mdast.children[53].children[0]</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/ca_fr/index.md</t>
-  </si>
-  <si>
-    <t>ca_fr</t>
-  </si>
-  <si>
-    <t>mdast.children[56].children[0]</t>
-  </si>
-  <si>
-    <t>[56,0]</t>
-  </si>
-  <si>
-    <t>{"type":"gtBody","children":[{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Metadata"}]}],"colSpan":2}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Title"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe for Business | Solutions de marketing numérique\npour les entreprises"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Description"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Déployez des expériences personnalisées et attrayantes sur\ntous les canaux. Stimulez ainsi votre croissance grâce aux\npuissantes solutions d'Adobe pour le marketing numérique,\nl'analytique, le commerce, l'IA et l'automatisation."}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"keywords"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe Business, Adobe for Business, solutions marketing\nAdobe, solutions d'expérience numérique Adobe"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"serp-content-type"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"product"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"publishDate"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"2023-06-27"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"primaryProductName"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"All DX"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"image"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"image","alt":"Logo de la marque Adobe en dégradé de couleurs","label":"image16","url":"https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Footer-source"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"link","title":null,"url":"https://main--bacom--adobecom.hlx.page/footer","children":[{"type":"text","value":"https://main--bacom--adobecom.hlx.page/footer"}]}]}]}]}]}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--bacom--adobecom.hlx.page/ca_fr/index.md&amp;path=mdast.children[56].children[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe for Business | Solutions de marketing numérique
-pour les entreprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déployez des expériences personnalisées et attrayantes sur
-tous les canaux. Stimulez ainsi votre croissance grâce aux
-puissantes solutions d'Adobe pour le marketing numérique,
-l'analytique, le commerce, l'IA et l'automatisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe Business, Adobe for Business, solutions marketing
-Adobe, solutions d'expérience numérique Adobe</t>
+    <t>drafts/dshet/finalfolder/finalpage1.md</t>
+  </si>
+  <si>
+    <t>mdast.children[1].children[0].children[1].children[0].children[2]</t>
+  </si>
+  <si>
+    <t>[1,0,1,0,2]</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>text (long form, large)</t>
+  </si>
+  <si>
+    <t>{"type":"paragraph","children":[{"type":"text","value":"White jasmin flower"}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White jasmin flower
+</t>
+  </si>
+  <si>
+    <t>White jasmin flower</t>
+  </si>
+  <si>
+    <t>{"operation":"LIKE","searchValue":"White jasmin flower"}</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/block/getMdast?url=https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage1.md&amp;path=mdast.children[1].children[0].children[1].children[0].children[2]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage2.md</t>
+  </si>
+  <si>
+    <t>drafts/dshet/finalfolder/finalpage2.md</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/block/getMdast?url=https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage2.md&amp;path=mdast.children[1].children[0].children[1].children[0].children[2]</t>
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE_MD_DATA</t>
+  </si>
+  <si>
+    <t>OPERATION_TYPE</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>UPDATE_TYPE</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink jasmin flower
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,8 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,17 +519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="50" customWidth="1"/>
+    <col min="1" max="1" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="80" customWidth="1"/>
@@ -593,10 +542,13 @@
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
     <col min="13" max="13" width="50" customWidth="1"/>
-    <col min="14" max="23" width="30" customWidth="1"/>
+    <col min="14" max="16" width="30" customWidth="1"/>
+    <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,271 +598,166 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="H2">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
       </c>
       <c r="R3" t="s">
         <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
         <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/tools/da-apps/dist/static/files/reference.xlsx
+++ b/tools/da-apps/dist/static/files/reference.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AAA624-7140-6B48-9BDE-FA2F242CD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A83E2B-316E-4AE5-8F63-230B89F61600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="227">
   <si>
     <t>URL</t>
   </si>
@@ -30,9 +30,6 @@
     <t>FILE</t>
   </si>
   <si>
-    <t>CELLPATH</t>
-  </si>
-  <si>
     <t>INDEX</t>
   </si>
   <si>
@@ -45,88 +42,650 @@
     <t>BLOCK_NAME</t>
   </si>
   <si>
-    <t>MDAST_DATA</t>
-  </si>
-  <si>
     <t>MD_DATA</t>
   </si>
   <si>
-    <t>HTML_DATA</t>
-  </si>
-  <si>
-    <t>CONDITION</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>URL_PATH</t>
-  </si>
-  <si>
-    <t>META_JSON</t>
-  </si>
-  <si>
-    <t>https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage1.md</t>
-  </si>
-  <si>
-    <t>https://main--da-bacom--adobecom.aem.page</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>drafts/dshet/finalfolder/finalpage1.md</t>
-  </si>
-  <si>
-    <t>mdast.children[1].children[0].children[1].children[0].children[2]</t>
-  </si>
-  <si>
-    <t>[1,0,1,0,2]</t>
+    <t>https://main--gwp-playground--adobecom.hlx.page/in_hi/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page</t>
+  </si>
+  <si>
+    <t>in_hi</t>
+  </si>
+  <si>
+    <t>customer-success-stories/aaa-northeast-case-study.md</t>
   </si>
   <si>
     <t>block</t>
   </si>
   <si>
-    <t>text (long form, large)</t>
-  </si>
-  <si>
-    <t>{"type":"paragraph","children":[{"type":"text","value":"White jasmin flower"}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White jasmin flower
+    <t>stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Adobe Experience Manager ›](https://main--bacom--adobecom.hlx.page/products/experience-manager/adobe-experience-manager)
 </t>
   </si>
   <si>
-    <t>White jasmin flower</t>
-  </si>
-  <si>
-    <t>{"operation":"LIKE","searchValue":"White jasmin flower"}</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage1.md&amp;path=mdast.children[1].children[0].children[1].children[0].children[2]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage2.md</t>
-  </si>
-  <si>
-    <t>drafts/dshet/finalfolder/finalpage2.md</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--da-bacom--adobecom.aem.page/drafts/dshet/finalfolder/finalpage2.md&amp;path=mdast.children[1].children[0].children[1].children[0].children[2]</t>
+    <t>https://main--gwp-playground--adobecom.hlx.page/jp/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/kr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/my_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>my_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/tw/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>tw</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/be_nl/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>be_nl</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/bg/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/nz/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>nz</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ph_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ph_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ph_fil/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ph_fil</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/sg/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/th_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>th_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ca/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/hk_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>hk_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/hk_zh/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>hk_zh</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/id_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>id_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/id_id/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>id_id</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/in/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/my_ms/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>my_ms</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/vn_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>vn_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/vn_vi/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>vn_vi</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/be_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>be_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/dk/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ee/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/fr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/gr_el/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>gr_el</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/gr_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>gr_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ng/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/be_fr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>be_fr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ch_de/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ch_de</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ch_fr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ch_fr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ch_it/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ch_it</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/cz/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>cz</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/eg_ar/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>eg_ar</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/eg_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>eg_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/es/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/fi/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/hu/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ie/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/il_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>il_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/il_he/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>il_he</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/it/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/kw_ar/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>kw_ar</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/nl/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/no/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/pl/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/pt/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/qa_ar/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>qa_ar</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/qa_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>qa_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ro/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/sa_ar/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>sa_ar</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/sa_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>sa_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/se/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/si/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/sk/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/tr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ua/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/uk/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/kw_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>kw_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/lt/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/lu_de/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>lu_de</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/lu_fr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>lu_fr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/lv/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/mena_ar/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>mena_ar</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/mena_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>mena_en</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ru/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/cr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ec/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/gt/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/la/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/mx/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/pe/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/pr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/za/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>za</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/br/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/cl/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/co/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/th_th/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>th_th</t>
   </si>
   <si>
     <t>STATUS</t>
   </si>
   <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/fi/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/fil/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/fr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/he/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/hi/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/hu/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/id/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/it/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/ja/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/ko/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/lt/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/lv/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/ms/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/nb/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/nl/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/pl/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/pt/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/ro/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/ru/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/sk/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/sl/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/sv/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/th/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/tr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/uk/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/vi/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/zh_cn/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/zh_tw/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ca_fr/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/au/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/cn/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ae_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/africa/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/at/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/de/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/lu_en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/ar/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/ar/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/bg/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/cs/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/da/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/de/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/el/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/en/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/en-gb/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/es/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/es-419/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
+    <t>https://main--gwp-playground--adobecom.hlx.page/langstore/et/customer-success-stories/aaa-northeast-case-study.md</t>
+  </si>
+  <si>
     <t>UPDATE_MD_DATA</t>
   </si>
   <si>
+    <t xml:space="preserve">[Adobe Experience Manager ›](https://main--bacom--adobecom.hlx.page/products/experience-manager/new-url)
+</t>
+  </si>
+  <si>
     <t>OPERATION_TYPE</t>
   </si>
   <si>
@@ -139,8 +698,7 @@
     <t>md</t>
   </si>
   <si>
-    <t xml:space="preserve">Pink jasmin flower
-</t>
+    <t>3,0,4,0,2</t>
   </si>
 </sst>
 </file>
@@ -178,9 +736,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,212 +1076,3038 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="80" customWidth="1"/>
-    <col min="6" max="7" width="30" customWidth="1"/>
-    <col min="8" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="50" customWidth="1"/>
-    <col min="14" max="16" width="30" customWidth="1"/>
-    <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="14.109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1">
+        <v>3</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
+      <c r="D74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="1">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I79">
+    <sortCondition ref="A1:A79"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -733,7 +4115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -742,18 +4124,410 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/tools/da-apps/dist/static/files/reference.xlsx
+++ b/tools/da-apps/dist/static/files/reference.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9CB621-20EA-4BCE-BB40-2CCB6FF79587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Report" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Invalid Pages" state="visible" r:id="rId5"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid Pages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>URL</t>
   </si>
@@ -26,9 +30,6 @@
     <t>FILE</t>
   </si>
   <si>
-    <t>CELLPATH</t>
-  </si>
-  <si>
     <t>INDEX</t>
   </si>
   <si>
@@ -41,176 +42,70 @@
     <t>BLOCK_NAME</t>
   </si>
   <si>
-    <t>MDAST_DATA</t>
-  </si>
-  <si>
     <t>MD_DATA</t>
   </si>
   <si>
-    <t>HTML_DATA</t>
-  </si>
-  <si>
-    <t>CONDITION</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>URL_PATH</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>METAKEYINDEX</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>KEYWORDS</t>
-  </si>
-  <si>
-    <t>SERP-CONTENT-TYPE</t>
-  </si>
-  <si>
-    <t>PUBLISHDATE</t>
-  </si>
-  <si>
-    <t>PRIMARYPRODUCTNAME</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/index.md</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page</t>
+    <t>block</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE_MD_DATA</t>
+  </si>
+  <si>
+    <t>OPERATION_TYPE</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>UPDATE_TYPE</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>https://main--da-bacom--adobecom.aem.page/drafts/dshet/save-validation/savepage2.md</t>
+  </si>
+  <si>
+    <t>https://main--da-bacom--adobecom.aem.page</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>index.md</t>
-  </si>
-  <si>
-    <t>mdast.children[51].children[0]</t>
-  </si>
-  <si>
-    <t>[51,0]</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>{"type":"gtBody","children":[{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"strong","children":[{"type":"text","value":"Metadata"}]}]}],"colSpan":2}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Title"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe for Business | Enterprise Digital Marketing\nSolutions"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Description"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Drive growth and engage customers across channels with\npersonalized experiences from Adobe's powerful digital\nmarketing, analytics, commerce, AI, and automation tools."}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"keywords"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"adobe business, adobe for business, adobe marketing,\nadobe digital experience"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"serp-content-type"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"product"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"publishDate"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"2023-06-27"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"primaryProductName"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"All DX"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"image"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"image","alt":"Gradient color Adobe brand logo","label":"image10","url":"https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Footer-source"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"link","title":null,"url":"https://main--bacom--adobecom.hlx.page/footer","children":[{"type":"text","value":"https://main--bacom--adobecom.hlx.page/footer"}]}]}]}]}]}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"blockType":"metadata","blockName":"metadata","keys":[]}</t>
-  </si>
-  <si>
-    <t>globalReturn</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--bacom--adobecom.hlx.page/index.md&amp;path=mdast.children[51].children[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe for Business | Enterprise Digital Marketing
-Solutions</t>
-  </si>
-  <si>
-    <t>0,8,1,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drive growth and engage customers across channels with
-personalized experiences from Adobe's powerful digital
-marketing, analytics, commerce, AI, and automation tools.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adobe business, adobe for business, adobe marketing,
-adobe digital experience</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>All DX</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/ca/index.md</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>mdast.children[53].children[0]</t>
-  </si>
-  <si>
-    <t>[53,0]</t>
-  </si>
-  <si>
-    <t>{"type":"gtBody","children":[{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"strong","children":[{"type":"text","value":"Metadata"}]}]}],"colSpan":2}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Title"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe for Business | Enterprise Digital Marketing\nSolutions"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Description"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Drive growth and engage customers across channels with\npersonalized experiences from Adobe's powerful digital\nmarketing, analytics, commerce, AI, and automation tools."}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"keywords"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"adobe business, adobe for business, adobe marketing,\nadobe digital experience"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"serp-content-type"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"product"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"publishDate"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"2023-06-27"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"primaryProductName"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"All DX"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"image"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"image","alt":"Gradient color Adobe brand logo","label":"image16","url":"https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Footer-source"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"link","title":null,"url":"https://main--bacom--adobecom.hlx.page/footer","children":[{"type":"text","value":"https://main--bacom--adobecom.hlx.page/footer"}]}]}]}]}]}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--bacom--adobecom.hlx.page/ca/index.md&amp;path=mdast.children[53].children[0]</t>
-  </si>
-  <si>
-    <t>https://main--bacom--adobecom.hlx.page/ca_fr/index.md</t>
-  </si>
-  <si>
-    <t>ca_fr</t>
-  </si>
-  <si>
-    <t>mdast.children[56].children[0]</t>
-  </si>
-  <si>
-    <t>[56,0]</t>
-  </si>
-  <si>
-    <t>{"type":"gtBody","children":[{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Metadata"}]}],"colSpan":2}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Title"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe for Business | Solutions de marketing numérique\npour les entreprises"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Description"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Déployez des expériences personnalisées et attrayantes sur\ntous les canaux. Stimulez ainsi votre croissance grâce aux\npuissantes solutions d'Adobe pour le marketing numérique,\nl'analytique, le commerce, l'IA et l'automatisation."}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"keywords"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Adobe Business, Adobe for Business, solutions marketing\nAdobe, solutions d'expérience numérique Adobe"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"serp-content-type"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"product"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"publishDate"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"2023-06-27"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"primaryProductName"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"All DX"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"image"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"image","alt":"Logo de la marque Adobe en dégradé de couleurs","label":"image16","url":"https://main--bacom--adobecom.hlx.page/media_17c6ba459a3827753e7830e7f91cc5c8eee4c2caf.jpeg#width=756&amp;height=426"}]}]}]},{"type":"gtRow","children":[{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"text","value":"Footer-source"}]}]},{"type":"gtCell","children":[{"type":"paragraph","children":[{"type":"link","title":null,"url":"https://main--bacom--adobecom.hlx.page/footer","children":[{"type":"text","value":"https://main--bacom--adobecom.hlx.page/footer"}]}]}]}]}]}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/block/getMdast?url=https://main--bacom--adobecom.hlx.page/ca_fr/index.md&amp;path=mdast.children[56].children[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe for Business | Solutions de marketing numérique
-pour les entreprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déployez des expériences personnalisées et attrayantes sur
-tous les canaux. Stimulez ainsi votre croissance grâce aux
-puissantes solutions d'Adobe pour le marketing numérique,
-l'analytique, le commerce, l'IA et l'automatisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe Business, Adobe for Business, solutions marketing
-Adobe, solutions d'expérience numérique Adobe</t>
-  </si>
-  <si>
-    <t>STATUS</t>
+    <t>drafts/dshet/save-validation/savepage2.md</t>
+  </si>
+  <si>
+    <t>[3,0,1,0,0]</t>
+  </si>
+  <si>
+    <t>text (max width 8 desktop, center, xxl spacing, xl button, l title, xxl heading, l body)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wild life sanctuary
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wild life sanctuary4
+</t>
+  </si>
+  <si>
+    <t>https://main--da-bacom--adobecom.aem.page/drafts/kart/replace/testdemo.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,7 +128,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -573,30 +469,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="80" customWidth="1"/>
-    <col min="6" max="7" width="30" customWidth="1"/>
-    <col min="8" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="50" customWidth="1"/>
-    <col min="14" max="23" width="30" customWidth="1"/>
+    <col min="1" max="1" width="61.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,292 +523,97 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I79">
+    <sortCondition ref="A1:A79"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>